--- a/客服部询价跟踪记录表-张冬生.xlsx
+++ b/客服部询价跟踪记录表-张冬生.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8108000_{491D9455-2988-495B-95E1-7BD9D63A080C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5F02304F-C930-4A5C-A4CB-7D65D46833A8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Quotation" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="358">
   <si>
     <t>询价信息</t>
   </si>
@@ -1355,6 +1355,54 @@
   </si>
   <si>
     <t>CMA USD875+EBS55 周四外港TPP转、周日洋山SIN转25天到，价格到月底</t>
+  </si>
+  <si>
+    <t>统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张晓晓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼日利亚，拉各斯港口的海运费和本地费用  小柜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海吉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈嘉宜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡建红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣诚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐龙飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1364,7 +1412,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1402,13 +1450,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Microsoft yahei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1418,7 +1459,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1537,24 +1578,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1562,15 +1592,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1603,28 +1624,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1638,9 +1641,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1657,17 +1657,83 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1681,17 +1747,25 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1707,7 +1781,7 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1720,6 +1794,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1735,7 +1815,7 @@
         <scheme val="minor"/>
       </font>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1748,6 +1828,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1779,9 +1865,15 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1797,7 +1889,7 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1810,6 +1902,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1825,7 +1923,7 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1838,6 +1936,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1854,7 +1958,7 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1867,6 +1971,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1889,7 +1999,110 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="mm/dd"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1917,115 +2130,6 @@
         <scheme val="minor"/>
       </font>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="mm/dd"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2046,26 +2150,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:J101" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="A1:J101" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="0">
-      <dynamicFilter type="today" val="43298" maxVal="43299"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:K109" totalsRowShown="0" headerRowDxfId="0" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <autoFilter ref="A1:K109" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="3"/>
+      </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A2:J101">
-    <sortCondition ref="D1:D101"/>
+  <sortState ref="A78:K100">
+    <sortCondition ref="A1:A101"/>
   </sortState>
-  <tableColumns count="10">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="日期" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="抬头" dataDxfId="8"/>
-    <tableColumn id="1" xr3:uid="{1DDA77D9-FCF5-42CB-8200-271167A1BA93}" name="姓名" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="联系方式" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="询价信息" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="报价" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{18185EA0-5013-499B-9753-0CFE375C8EE3}" name="更新提醒" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="出货日期" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="跟踪反馈情况" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="订舱情况" dataDxfId="0"/>
+  <tableColumns count="11">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="日期" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="抬头" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{1DDA77D9-FCF5-42CB-8200-271167A1BA93}" name="姓名" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="联系方式" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="询价信息" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="报价" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{18185EA0-5013-499B-9753-0CFE375C8EE3}" name="更新提醒" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="出货日期" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="跟踪反馈情况" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="订舱情况" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{72685A14-C7CF-4EF7-AEF3-8CD05545E29C}" name="统计" dataDxfId="1">
+      <calculatedColumnFormula>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2329,69 +2438,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="39.25" style="9" customWidth="1"/>
-    <col min="7" max="7" width="14.875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="9"/>
+    <col min="1" max="3" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="39.25" style="6" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="57">
-      <c r="A2" s="10">
+      <c r="K1" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7">
         <v>43298</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="13">
         <v>18938067</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2401,45 +2513,53 @@
         <v>302</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="11"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="1:10" ht="57" hidden="1">
-      <c r="A3" s="29">
+      <c r="J2" s="8"/>
+      <c r="K2" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19">
         <v>43294</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="21">
         <v>81218682</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-    </row>
-    <row r="4" spans="1:10" ht="57" hidden="1">
-      <c r="A4" s="10">
+      <c r="G3" s="23"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
         <v>43297</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="21">
+      <c r="C4" s="18"/>
+      <c r="D4" s="13">
         <v>120324616</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -2449,21 +2569,25 @@
         <v>266</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="11"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="1:10" ht="57" hidden="1">
-      <c r="A5" s="10">
+      <c r="J4" s="8"/>
+      <c r="K4" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
         <v>43297</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="13">
         <v>154589423</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -2473,21 +2597,25 @@
         <v>229</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="11"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" ht="128.25">
-      <c r="A6" s="10">
+      <c r="J5" s="8"/>
+      <c r="K5" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="128.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
         <v>43298</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="13">
         <v>224937062</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2497,21 +2625,25 @@
         <v>325</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="11"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" ht="28.5" hidden="1">
-      <c r="A7" s="10">
+      <c r="J6" s="8"/>
+      <c r="K6" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
         <v>43297</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="13">
         <v>243370046</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2521,21 +2653,25 @@
         <v>233</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="11"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10" ht="57" hidden="1">
-      <c r="A8" s="10">
+      <c r="J7" s="8"/>
+      <c r="K7" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
         <v>43292</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="13">
         <v>351166821</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -2545,1411 +2681,1635 @@
         <v>70</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="11"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" hidden="1">
-      <c r="A9" s="29">
+      <c r="J8" s="8"/>
+      <c r="K8" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="19">
         <v>43294</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="21">
         <v>397887344</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="34"/>
-    </row>
-    <row r="10" spans="1:10" ht="42.75" hidden="1">
-      <c r="A10" s="10">
+      <c r="G9" s="23"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
         <v>43297</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="13">
         <v>453038185</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="22" t="s">
         <v>234</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>236</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="11"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" hidden="1">
-      <c r="A11" s="16">
+      <c r="J10" s="8"/>
+      <c r="K10" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="19">
         <v>43294</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="21">
         <v>493470596</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:10" hidden="1">
-      <c r="A12" s="16">
+      <c r="G11" s="23"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="19">
         <v>43294</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="21">
         <v>569227973</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="1:10" ht="28.5" hidden="1">
-      <c r="A13" s="13">
+      <c r="G12" s="23"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
         <v>43297</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="13">
         <v>627838125</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="2" t="s">
+      <c r="G13" s="1"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="J13" s="15"/>
-    </row>
-    <row r="14" spans="1:10" hidden="1">
-      <c r="A14" s="13">
+      <c r="J13" s="8"/>
+      <c r="K13" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
         <v>43290</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="13">
         <v>641182396</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="2" t="s">
+      <c r="G14" s="1"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="15" spans="1:10" ht="28.5" hidden="1">
-      <c r="A15" s="13">
+      <c r="J14" s="8"/>
+      <c r="K14" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
         <v>43291</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="13">
         <v>731471558</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="2" t="s">
+      <c r="G15" s="1"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J15" s="15"/>
-    </row>
-    <row r="16" spans="1:10" ht="42.75" hidden="1">
-      <c r="A16" s="13">
+      <c r="J15" s="8"/>
+      <c r="K15" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="57" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
+        <v>43297</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" s="13">
+        <v>3002212595</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="57" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
+        <v>43297</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" s="13">
+        <v>3002212595</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="7">
+        <v>43297</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" s="13">
+        <v>3002212595</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
+        <v>43293</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="13">
+        <v>748763810</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
+        <v>43297</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" s="13">
+        <v>798468032</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>43292</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="13">
+        <v>822126163</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7">
+        <v>43293</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1006397967</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="19">
+        <v>43294</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" s="21">
+        <v>1062009510</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="7">
+        <v>43292</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="13">
+        <v>1090818480</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7">
+        <v>43297</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" s="13">
+        <v>1090818480</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7">
+        <v>43292</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="13">
+        <v>1102835273</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
+        <v>43298</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="D27" s="13">
+        <v>224937062</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7">
+        <v>43293</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" s="13">
+        <v>1135287212</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="7">
         <v>43291</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="14" t="s">
+      <c r="B29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="13">
+        <v>1502776271</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="19">
+        <v>43294</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D30" s="21">
+        <v>1713665714</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" s="23"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7">
+        <v>43291</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D31" s="13">
+        <v>1723872341</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="7">
+        <v>43292</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" s="13">
+        <v>1795859346</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="7">
+        <v>43298</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="D33" s="13">
+        <v>1102835273</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="7">
+        <v>43292</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="13">
+        <v>2068192152</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="7">
+        <v>43293</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35" s="13">
+        <v>2250498754</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J35" s="8"/>
+      <c r="K35" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="19">
+        <v>43294</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="D16" s="22">
-        <v>3002265564</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="42.75" hidden="1">
-      <c r="A17" s="13">
+      <c r="D36" s="21">
+        <v>2355850968</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" s="23"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="7">
+        <v>43292</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="13">
+        <v>2497014177</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="7">
+        <v>43293</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" s="13">
+        <v>2572253745</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="G38" s="24"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="7">
         <v>43291</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="B39" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" s="13">
+        <v>2579819397</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="7">
+        <v>43292</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" s="13">
+        <v>2724845504</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="7">
+        <v>43293</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" s="13">
+        <v>2726756997</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="19">
+        <v>43294</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" s="21">
+        <v>2837083776</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" s="23"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="19">
+        <v>43294</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" s="21">
+        <v>2850179619</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="23"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="19">
+        <v>43294</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" s="21">
+        <v>2853532159</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="G44" s="23"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="7">
+        <v>43298</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D45" s="13">
+        <v>1447387201</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="7">
+        <v>43298</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D46" s="13">
+        <v>1852519464</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="7">
+        <v>43293</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D47" s="13">
+        <v>2880265347</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="7">
+        <v>43293</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" s="13">
+        <v>2880265348</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J48" s="8"/>
+      <c r="K48" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="7">
+        <v>43298</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="D49" s="13">
+        <v>1852519464</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="7">
+        <v>43298</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="D50" s="13">
+        <v>2880265336</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="7">
+        <v>43297</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D51" s="13">
+        <v>2880800192</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="7">
+        <v>43297</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52" s="13">
+        <v>2880800192</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="7">
+        <v>43293</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D53" s="13">
+        <v>2881536704</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="7">
+        <v>43293</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D54" s="13">
+        <v>2881536711</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="7">
+        <v>43292</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D55" s="13">
+        <v>2881536716</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="19">
+        <v>43294</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D56" s="21">
+        <v>2881536717</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="G56" s="23"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="19">
+        <v>43294</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="D17" s="22">
-        <v>3002265564</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="15"/>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" hidden="1">
-      <c r="A18" s="13">
+      <c r="D57" s="21">
+        <v>2881601580</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G57" s="23"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="7">
+        <v>43298</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="D58" s="13">
+        <v>2880265380</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="7">
         <v>43293</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D18" s="35">
-        <v>3002265564</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="15"/>
-    </row>
-    <row r="19" spans="1:10" ht="28.5" hidden="1">
-      <c r="A19" s="13">
-        <v>43293</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D19" s="22">
-        <v>748763810</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="1:10" ht="42.75" hidden="1">
-      <c r="A20" s="13">
+      <c r="B59" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D59" s="13">
+        <v>2881725313</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="19">
+        <v>43294</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D60" s="21">
+        <v>2881725314</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G60" s="23"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="7">
+        <v>43298</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="D61" s="13">
+        <v>2880265383</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="7">
+        <v>43298</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="D62" s="13">
+        <v>2880265385</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H62" s="8"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="19">
+        <v>43294</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D63" s="21">
+        <v>2881725319</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G63" s="23"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="7">
         <v>43297</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="D20" s="22">
-        <v>798468032</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="15"/>
-    </row>
-    <row r="21" spans="1:10" ht="42.75" hidden="1">
-      <c r="A21" s="13">
-        <v>43292</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D21" s="22">
-        <v>822126163</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="15"/>
-    </row>
-    <row r="22" spans="1:10" ht="42.75" hidden="1">
-      <c r="A22" s="13">
-        <v>43293</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D22" s="22">
-        <v>1006397967</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="15"/>
-    </row>
-    <row r="23" spans="1:10" hidden="1">
-      <c r="A23" s="16">
-        <v>43294</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D23" s="23">
-        <v>1062009510</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="18"/>
-    </row>
-    <row r="24" spans="1:10" ht="28.5" hidden="1">
-      <c r="A24" s="13">
-        <v>43292</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D24" s="22">
-        <v>1090818480</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="15"/>
-    </row>
-    <row r="25" spans="1:10" ht="28.5" hidden="1">
-      <c r="A25" s="13">
-        <v>43297</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="D25" s="22">
-        <v>1090818480</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="15"/>
-    </row>
-    <row r="26" spans="1:10" ht="28.5" hidden="1">
-      <c r="A26" s="13">
-        <v>43292</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D26" s="22">
-        <v>1102835273</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="15"/>
-    </row>
-    <row r="27" spans="1:10" ht="71.25">
-      <c r="A27" s="13">
-        <v>43298</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="D27" s="22">
-        <v>224937062</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="15"/>
-    </row>
-    <row r="28" spans="1:10" ht="28.5" hidden="1">
-      <c r="A28" s="13">
-        <v>43293</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="D28" s="22">
-        <v>1135287212</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="J28" s="15"/>
-    </row>
-    <row r="29" spans="1:10" hidden="1">
-      <c r="A29" s="13">
-        <v>43291</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D29" s="22">
-        <v>1502776271</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="15"/>
-    </row>
-    <row r="30" spans="1:10" ht="42.75" hidden="1">
-      <c r="A30" s="16">
-        <v>43294</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D30" s="23">
-        <v>1713665714</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="18"/>
-    </row>
-    <row r="31" spans="1:10" ht="28.5" hidden="1">
-      <c r="A31" s="13">
-        <v>43291</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="D31" s="22">
-        <v>1723872341</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J31" s="15"/>
-    </row>
-    <row r="32" spans="1:10" ht="28.5" hidden="1">
-      <c r="A32" s="13">
-        <v>43292</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D32" s="22">
-        <v>1795859346</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="15"/>
-    </row>
-    <row r="33" spans="1:10" ht="57">
-      <c r="A33" s="13">
-        <v>43298</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="D33" s="22">
-        <v>1102835273</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="15"/>
-    </row>
-    <row r="34" spans="1:10" ht="57" hidden="1">
-      <c r="A34" s="13">
-        <v>43292</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D34" s="22">
-        <v>2068192152</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="15"/>
-    </row>
-    <row r="35" spans="1:10" ht="57" hidden="1">
-      <c r="A35" s="13">
-        <v>43293</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D35" s="22">
-        <v>2250498754</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J35" s="15"/>
-    </row>
-    <row r="36" spans="1:10" ht="28.5" hidden="1">
-      <c r="A36" s="16">
-        <v>43294</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="D36" s="23">
-        <v>2355850968</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="18"/>
-    </row>
-    <row r="37" spans="1:10" hidden="1">
-      <c r="A37" s="13">
-        <v>43292</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="22">
-        <v>2497014177</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="15"/>
-    </row>
-    <row r="38" spans="1:10" ht="27" hidden="1">
-      <c r="A38" s="13">
-        <v>43293</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D38" s="22">
-        <v>2572253745</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="15"/>
-    </row>
-    <row r="39" spans="1:10" ht="28.5" hidden="1">
-      <c r="A39" s="13">
-        <v>43291</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D39" s="22">
-        <v>2579819397</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="15"/>
-    </row>
-    <row r="40" spans="1:10" ht="28.5" hidden="1">
-      <c r="A40" s="13">
-        <v>43292</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="D40" s="22">
-        <v>2724845504</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="15"/>
-    </row>
-    <row r="41" spans="1:10" ht="28.5" hidden="1">
-      <c r="A41" s="13">
-        <v>43293</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D41" s="22">
-        <v>2726756997</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="15"/>
-    </row>
-    <row r="42" spans="1:10" ht="28.5" hidden="1">
-      <c r="A42" s="16">
-        <v>43294</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="D42" s="23">
-        <v>2837083776</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="18"/>
-    </row>
-    <row r="43" spans="1:10" hidden="1">
-      <c r="A43" s="16">
-        <v>43294</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="D43" s="23">
-        <v>2850179619</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="18"/>
-    </row>
-    <row r="44" spans="1:10" ht="28.5" hidden="1">
-      <c r="A44" s="16">
-        <v>43294</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="D44" s="23">
-        <v>2853532159</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="18"/>
-    </row>
-    <row r="45" spans="1:10" ht="42.75">
-      <c r="A45" s="13">
-        <v>43298</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="D45" s="22">
-        <v>1447387201</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="15"/>
-    </row>
-    <row r="46" spans="1:10" ht="42.75">
-      <c r="A46" s="13">
-        <v>43298</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="D46" s="22">
-        <v>1852519464</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="15"/>
-    </row>
-    <row r="47" spans="1:10" hidden="1">
-      <c r="A47" s="13">
-        <v>43293</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D47" s="22">
-        <v>2880265347</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="15"/>
-    </row>
-    <row r="48" spans="1:10" ht="57" hidden="1">
-      <c r="A48" s="13">
-        <v>43293</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D48" s="22">
-        <v>2880265348</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J48" s="15"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="13">
-        <v>43298</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="D49" s="22">
-        <v>1852519464</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="15"/>
-    </row>
-    <row r="50" spans="1:10" ht="57">
-      <c r="A50" s="13">
-        <v>43298</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="D50" s="22">
-        <v>2880265336</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="15"/>
-    </row>
-    <row r="51" spans="1:10" ht="28.5" hidden="1">
-      <c r="A51" s="13">
-        <v>43297</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="D51" s="22">
-        <v>2880800192</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="15"/>
-    </row>
-    <row r="52" spans="1:10" ht="57" hidden="1">
-      <c r="A52" s="13">
-        <v>43297</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="D52" s="22">
-        <v>2880800192</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="15"/>
-    </row>
-    <row r="53" spans="1:10" ht="42.75" hidden="1">
-      <c r="A53" s="13">
-        <v>43293</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="D53" s="22">
-        <v>2881536704</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="15"/>
-    </row>
-    <row r="54" spans="1:10" hidden="1">
-      <c r="A54" s="13">
-        <v>43293</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D54" s="22">
-        <v>2881536711</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="15"/>
-    </row>
-    <row r="55" spans="1:10" ht="42.75" hidden="1">
-      <c r="A55" s="13">
-        <v>43292</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="D55" s="22">
-        <v>2881536716</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="15"/>
-    </row>
-    <row r="56" spans="1:10" hidden="1">
-      <c r="A56" s="16">
-        <v>43294</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="D56" s="23">
-        <v>2881536717</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="18"/>
-    </row>
-    <row r="57" spans="1:10" ht="28.5" hidden="1">
-      <c r="A57" s="16">
-        <v>43294</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="D57" s="23">
-        <v>2881601580</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="18"/>
-    </row>
-    <row r="58" spans="1:10" ht="28.5">
-      <c r="A58" s="13">
-        <v>43298</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="D58" s="22">
-        <v>2880265380</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="15"/>
-    </row>
-    <row r="59" spans="1:10" hidden="1">
-      <c r="A59" s="13">
-        <v>43293</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="D59" s="22">
-        <v>2881725313</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="15"/>
-    </row>
-    <row r="60" spans="1:10" ht="28.5" hidden="1">
-      <c r="A60" s="16">
-        <v>43294</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="D60" s="23">
-        <v>2881725314</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="18"/>
-    </row>
-    <row r="61" spans="1:10" ht="57">
-      <c r="A61" s="13">
-        <v>43298</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="D61" s="22">
-        <v>2880265383</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="15"/>
-    </row>
-    <row r="62" spans="1:10" ht="57">
-      <c r="A62" s="13">
-        <v>43298</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="D62" s="22">
-        <v>2880265385</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H62" s="14"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="15"/>
-    </row>
-    <row r="63" spans="1:10" ht="28.5" hidden="1">
-      <c r="A63" s="16">
-        <v>43294</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="D63" s="23">
+      <c r="B64" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D64" s="13">
         <v>2881725319</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="18"/>
-    </row>
-    <row r="64" spans="1:10" ht="28.5" hidden="1">
-      <c r="A64" s="10">
-        <v>43297</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="D64" s="21">
-        <v>2881725319</v>
-      </c>
-      <c r="E64" s="32" t="s">
+      <c r="E64" s="22" t="s">
         <v>262</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>257</v>
       </c>
       <c r="G64" s="1"/>
-      <c r="H64" s="11"/>
+      <c r="H64" s="8"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="12"/>
-    </row>
-    <row r="65" spans="1:10" ht="28.5" hidden="1">
-      <c r="A65" s="29">
+      <c r="J64" s="8"/>
+      <c r="K64" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="19">
         <v>43294</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="D65" s="31">
+      <c r="D65" s="21">
         <v>2881725324</v>
       </c>
-      <c r="E65" s="33" t="s">
+      <c r="E65" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="F65" s="33" t="s">
+      <c r="F65" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="G65" s="33"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="34"/>
-    </row>
-    <row r="66" spans="1:10" ht="28.5" hidden="1">
-      <c r="A66" s="10">
+      <c r="G65" s="23"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="7">
         <v>43292</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D66" s="21">
+      <c r="D66" s="13">
         <v>2881725325</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -3959,43 +4319,51 @@
         <v>85</v>
       </c>
       <c r="G66" s="1"/>
-      <c r="H66" s="11"/>
+      <c r="H66" s="8"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="12"/>
-    </row>
-    <row r="67" spans="1:10" hidden="1">
-      <c r="A67" s="10">
+      <c r="J66" s="8"/>
+      <c r="K66" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="7">
         <v>43297</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D67" s="13">
         <v>2881725329</v>
       </c>
-      <c r="E67" s="32" t="s">
+      <c r="E67" s="22" t="s">
         <v>253</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>254</v>
       </c>
       <c r="G67" s="1"/>
-      <c r="H67" s="11"/>
+      <c r="H67" s="8"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="12"/>
-    </row>
-    <row r="68" spans="1:10" ht="28.5" hidden="1">
-      <c r="A68" s="10">
+      <c r="J67" s="8"/>
+      <c r="K67" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="7">
         <v>43292</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="21">
+      <c r="C68" s="8"/>
+      <c r="D68" s="13">
         <v>2881757152</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -4005,143 +4373,175 @@
         <v>66</v>
       </c>
       <c r="G68" s="1"/>
-      <c r="H68" s="11"/>
+      <c r="H68" s="8"/>
       <c r="I68" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J68" s="12"/>
-    </row>
-    <row r="69" spans="1:10" ht="28.5" hidden="1">
-      <c r="A69" s="10">
+      <c r="J68" s="8"/>
+      <c r="K68" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="7">
         <v>43293</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="D69" s="21">
+      <c r="D69" s="13">
         <v>2885276800</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G69" s="1"/>
-      <c r="H69" s="11"/>
+      <c r="H69" s="8"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="12"/>
-    </row>
-    <row r="70" spans="1:10" ht="28.5" hidden="1">
-      <c r="A70" s="29">
+      <c r="J69" s="8"/>
+      <c r="K69" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="19">
         <v>43294</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="D70" s="31">
+      <c r="D70" s="21">
         <v>2885276800</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F70" s="33" t="s">
+      <c r="F70" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="G70" s="33"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="33"/>
-      <c r="J70" s="34"/>
-    </row>
-    <row r="71" spans="1:10" ht="57" hidden="1">
-      <c r="A71" s="13">
-        <v>43297</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="D71" s="22">
-        <v>3002212595</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="15"/>
-    </row>
-    <row r="72" spans="1:10" ht="57" hidden="1">
-      <c r="A72" s="13">
-        <v>43297</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="D72" s="22">
-        <v>3002212595</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="15"/>
-    </row>
-    <row r="73" spans="1:10" ht="85.5" hidden="1">
-      <c r="A73" s="13">
-        <v>43297</v>
-      </c>
-      <c r="B73" s="14" t="s">
+      <c r="G70" s="23"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="7">
+        <v>43291</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="D73" s="22">
-        <v>3002212595</v>
-      </c>
-      <c r="E73" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G73" s="2"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="15"/>
-    </row>
-    <row r="74" spans="1:10" ht="42.75" hidden="1">
-      <c r="A74" s="10">
+      <c r="C71" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" s="13">
+        <v>3002265564</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="7">
+        <v>43291</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D72" s="13">
+        <v>3002265564</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" s="8"/>
+      <c r="K72" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="7">
         <v>43293</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B73" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D73" s="13">
+        <v>748763810</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="7">
+        <v>43293</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D74" s="21">
+      <c r="D74" s="13">
         <v>3002255096</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -4151,311 +4551,363 @@
         <v>95</v>
       </c>
       <c r="G74" s="1"/>
-      <c r="H74" s="11"/>
+      <c r="H74" s="8"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="12"/>
-    </row>
-    <row r="75" spans="1:10" ht="27" hidden="1">
-      <c r="A75" s="16">
+      <c r="J74" s="8"/>
+      <c r="K74" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="27" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="19">
         <v>43294</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="D75" s="23">
+      <c r="D75" s="21">
         <v>3002274662</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="18"/>
-    </row>
-    <row r="76" spans="1:10" ht="28.5" hidden="1">
-      <c r="A76" s="16">
+      <c r="G75" s="23"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="19">
         <v>43294</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="D76" s="23">
+      <c r="D76" s="21">
         <v>3002274662</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="G76" s="3"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="18"/>
-    </row>
-    <row r="77" spans="1:10" ht="28.5">
-      <c r="A77" s="13">
+      <c r="G76" s="23"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="7">
         <v>43298</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C77" s="24" t="s">
+      <c r="C77" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="D77" s="22">
+      <c r="D77" s="13">
         <v>2881601586</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F77" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H77" s="14"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="15"/>
-    </row>
-    <row r="78" spans="1:10" hidden="1">
-      <c r="A78" s="13">
+      <c r="H77" s="8"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="7">
         <v>43291</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D78" s="22">
+      <c r="C78" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D78" s="13">
         <v>3003128015</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F78" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="15"/>
-    </row>
-    <row r="79" spans="1:10" ht="28.5" hidden="1">
-      <c r="A79" s="13">
+      <c r="G78" s="1"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="7">
         <v>43291</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C79" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D79" s="22">
+      <c r="C79" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D79" s="13">
         <v>3003128015</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F79" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G79" s="2"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="15"/>
-    </row>
-    <row r="80" spans="1:10" hidden="1">
-      <c r="A80" s="13">
+      <c r="G79" s="1"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="7">
         <v>43291</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D80" s="22">
+      <c r="C80" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D80" s="13">
         <v>3003128015</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G80" s="2"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="15"/>
-    </row>
-    <row r="81" spans="1:10" ht="28.5" hidden="1">
-      <c r="A81" s="13">
+      <c r="G80" s="1"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="7">
         <v>43292</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C81" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D81" s="22">
+      <c r="C81" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D81" s="13">
         <v>3003128015</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F81" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="15"/>
-    </row>
-    <row r="82" spans="1:10" ht="28.5" hidden="1">
-      <c r="A82" s="13">
+      <c r="G81" s="1"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="7">
         <v>43292</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C82" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D82" s="22">
+      <c r="C82" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D82" s="13">
         <v>3003128015</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F82" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G82" s="2"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="15"/>
-    </row>
-    <row r="83" spans="1:10" ht="28.5" hidden="1">
-      <c r="A83" s="13">
+      <c r="G82" s="1"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="7">
         <v>43293</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C83" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D83" s="22">
+      <c r="C83" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D83" s="13">
         <v>3003128015</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F83" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G83" s="2"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="15"/>
-    </row>
-    <row r="84" spans="1:10" ht="28.5" hidden="1">
-      <c r="A84" s="13">
+      <c r="G83" s="1"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="7">
         <v>43293</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C84" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D84" s="22">
+      <c r="C84" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D84" s="13">
         <v>3003128015</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F84" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="15"/>
-    </row>
-    <row r="85" spans="1:10" ht="28.5" hidden="1">
-      <c r="A85" s="13">
+      <c r="G84" s="1"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="7">
         <v>43293</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C85" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D85" s="22">
+      <c r="C85" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D85" s="13">
         <v>3003128015</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="F85" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G85" s="2"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="15"/>
-    </row>
-    <row r="86" spans="1:10" ht="42.75" hidden="1">
-      <c r="A86" s="16">
+      <c r="G85" s="1"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="19">
         <v>43294</v>
       </c>
-      <c r="B86" s="17" t="s">
+      <c r="B86" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="C86" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="D86" s="23">
+      <c r="C86" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D86" s="21">
         <v>3003128015</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="18"/>
-    </row>
-    <row r="87" spans="1:10" ht="42.75" hidden="1">
-      <c r="A87" s="10">
+      <c r="G86" s="23"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="7">
         <v>43297</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D87" s="21">
+      <c r="D87" s="13">
         <v>3003128015</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -4464,46 +4916,54 @@
       <c r="F87" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G87" s="2"/>
-      <c r="H87" s="11"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="8"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="12"/>
-    </row>
-    <row r="88" spans="1:10" ht="57" hidden="1">
-      <c r="A88" s="13">
+      <c r="J87" s="8"/>
+      <c r="K87" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="7">
         <v>43297</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="D88" s="22">
+      <c r="D88" s="13">
         <v>3003128015</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F88" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="15"/>
-    </row>
-    <row r="89" spans="1:10" ht="57">
-      <c r="A89" s="10">
+      <c r="G88" s="1"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="7">
         <v>43298</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="D89" s="21">
+      <c r="D89" s="13">
         <v>2881725315</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -4512,22 +4972,26 @@
       <c r="F89" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="11"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="8"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="12"/>
-    </row>
-    <row r="90" spans="1:10" hidden="1">
-      <c r="A90" s="10">
+      <c r="J89" s="8"/>
+      <c r="K89" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="7">
         <v>43292</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="D90" s="21">
+      <c r="D90" s="13">
         <v>3003523008</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -4536,266 +5000,310 @@
       <c r="F90" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G90" s="2"/>
-      <c r="H90" s="11"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="8"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="12"/>
-    </row>
-    <row r="91" spans="1:10" ht="28.5" hidden="1">
-      <c r="A91" s="13">
+      <c r="J90" s="8"/>
+      <c r="K90" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="7">
         <v>43292</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C91" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D91" s="22">
+      <c r="D91" s="13">
         <v>3003538372</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="F91" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G91" s="28"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="15"/>
-    </row>
-    <row r="92" spans="1:10" ht="42.75">
-      <c r="A92" s="13">
+      <c r="G91" s="1"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="7">
         <v>43298</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C92" s="24" t="s">
+      <c r="C92" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="D92" s="22">
+      <c r="D92" s="13">
         <v>2881725325</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="F92" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="G92" s="2"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="15"/>
-    </row>
-    <row r="93" spans="1:10" ht="28.5" hidden="1">
-      <c r="A93" s="13">
+      <c r="G92" s="1"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="7">
         <v>43292</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C93" s="14"/>
-      <c r="D93" s="22">
+      <c r="C93" s="8"/>
+      <c r="D93" s="13">
         <v>3303211805</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="F93" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G93" s="2"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="15"/>
-    </row>
-    <row r="94" spans="1:10" hidden="1">
-      <c r="A94" s="13">
+      <c r="G93" s="1"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="7">
         <v>43293</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D94" s="22">
+      <c r="D94" s="13">
         <v>3303211805</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="F94" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G94" s="2"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="15"/>
-    </row>
-    <row r="95" spans="1:10" hidden="1">
-      <c r="A95" s="13">
+      <c r="G94" s="1"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="7">
         <v>43290</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C95" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D95" s="22">
+      <c r="D95" s="13">
         <v>15967376782</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E95" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="F95" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G95" s="2"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="15"/>
-    </row>
-    <row r="96" spans="1:10" hidden="1">
-      <c r="A96" s="13">
+      <c r="G95" s="1"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="7">
         <v>43290</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C96" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D96" s="22">
+      <c r="D96" s="13">
         <v>15967376782</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="F96" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G96" s="2"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="2" t="s">
+      <c r="G96" s="1"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J96" s="15"/>
-    </row>
-    <row r="97" spans="1:10" ht="71.25" hidden="1">
-      <c r="A97" s="13">
+      <c r="J96" s="8"/>
+      <c r="K96" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="7">
         <v>43292</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C97" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D97" s="22" t="s">
+      <c r="D97" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="F97" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G97" s="2"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="15"/>
-    </row>
-    <row r="98" spans="1:10" ht="54">
-      <c r="A98" s="13">
+      <c r="G97" s="1"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="54" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="7">
         <v>43298</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C98" s="24" t="s">
+      <c r="C98" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="D98" s="22">
+      <c r="D98" s="13">
         <v>3002716532</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F98" s="20" t="s">
+      <c r="F98" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="G98" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H98" s="14"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="15"/>
-    </row>
-    <row r="99" spans="1:10" ht="28.5">
-      <c r="A99" s="13">
+      <c r="H98" s="8"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="7">
         <v>43298</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C99" s="24" t="s">
+      <c r="C99" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="D99" s="22">
+      <c r="D99" s="13">
         <v>3003128015</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="F99" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="G99" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H99" s="14"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="15"/>
-    </row>
-    <row r="100" spans="1:10" ht="28.5">
-      <c r="A100" s="13">
+      <c r="H99" s="8"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="7">
         <v>43298</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C100" s="24" t="s">
+      <c r="C100" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="D100" s="22">
+      <c r="D100" s="13">
         <v>3003128015</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="F100" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G100" s="2"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="15"/>
-    </row>
-    <row r="101" spans="1:10" ht="71.25">
-      <c r="A101" s="13">
+      <c r="G100" s="1"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="9">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="10">
         <v>43298</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="C101" s="24" t="s">
+      <c r="C101" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="D101" s="22">
+      <c r="D101" s="14">
         <v>3004996990</v>
       </c>
       <c r="E101" s="2" t="s">
@@ -4807,9 +5315,205 @@
       <c r="G101" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="H101" s="14"/>
+      <c r="H101" s="11"/>
       <c r="I101" s="2"/>
-      <c r="J101" s="15"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="12">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A102" s="10">
+        <v>43299</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="D102" s="14">
+        <v>1795859346</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="26">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A103" s="10">
+        <v>43299</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="D103" s="14">
+        <v>2583708287</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="26">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A104" s="10">
+        <v>43299</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="D104" s="14">
+        <v>1622427609</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="26">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A105" s="10">
+        <v>43299</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="D105" s="14">
+        <v>2726756997</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="26">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A106" s="10">
+        <v>43299</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D106" s="14">
+        <v>2881725324</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="26">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A107" s="10">
+        <v>43299</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="15"/>
+      <c r="D107" s="14">
+        <v>1016150590</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="26">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A108" s="10">
+        <v>43299</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="D108" s="14">
+        <v>3002274662</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="26">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A109" s="10">
+        <v>43299</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D109" s="14">
+        <v>331903049</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="26">
+        <f>COUNTIF(表1[联系方式],表1[[#This Row],[联系方式]])</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
